--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13020" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="raw0" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9500" uniqueCount="7083">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9501" uniqueCount="7086">
   <si>
     <t>河南省南阳市</t>
   </si>
@@ -21548,6 +21548,18 @@
   </si>
   <si>
     <t>标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省为普通文本，bigtext、image</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59788,8 +59800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -59827,7 +59839,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>420</v>
+        <v>7084</v>
       </c>
       <c r="D2" s="23" t="s">
         <v>622</v>
@@ -59908,9 +59920,6 @@
       <c r="B7" s="23" t="s">
         <v>4205</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>421</v>
-      </c>
       <c r="G7" s="23" t="s">
         <v>7059</v>
       </c>
@@ -59930,6 +59939,9 @@
       </c>
       <c r="H8" s="23" t="s">
         <v>7075</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>7085</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="23" customFormat="1">
@@ -60030,8 +60042,8 @@
       <c r="B16" t="s">
         <v>153</v>
       </c>
-      <c r="C16" t="s">
-        <v>420</v>
+      <c r="C16" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D16" t="s">
         <v>622</v>
@@ -60098,7 +60110,7 @@
       <c r="B20" t="s">
         <v>595</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>421</v>
       </c>
       <c r="G20" s="23" t="s">
@@ -60202,7 +60214,7 @@
       <c r="B27" t="s">
         <v>448</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>421</v>
       </c>
       <c r="G27" s="23" t="s">
@@ -60275,7 +60287,7 @@
       <c r="B32" t="s">
         <v>154</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>592</v>
       </c>
       <c r="G32" s="17" t="s">
@@ -60365,8 +60377,8 @@
       <c r="B39" t="s">
         <v>153</v>
       </c>
-      <c r="C39" t="s">
-        <v>420</v>
+      <c r="C39" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D39" t="s">
         <v>622</v>
@@ -60586,8 +60598,8 @@
       <c r="B57" t="s">
         <v>153</v>
       </c>
-      <c r="C57" t="s">
-        <v>420</v>
+      <c r="C57" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D57" t="s">
         <v>622</v>
@@ -60694,8 +60706,8 @@
       <c r="B66" t="s">
         <v>153</v>
       </c>
-      <c r="C66" t="s">
-        <v>420</v>
+      <c r="C66" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D66" t="s">
         <v>622</v>
@@ -60808,8 +60820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60854,8 +60866,8 @@
       <c r="B2" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>420</v>
+      <c r="C2" s="23" t="s">
+        <v>7083</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>622</v>
@@ -61060,8 +61072,8 @@
       <c r="B13" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>420</v>
+      <c r="C13" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>622</v>
@@ -61253,8 +61265,8 @@
       <c r="B24" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C24" s="17" t="s">
-        <v>420</v>
+      <c r="C24" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D24" s="17" t="s">
         <v>622</v>
@@ -61361,8 +61373,8 @@
       <c r="B30" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="17" t="s">
-        <v>420</v>
+      <c r="C30" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>622</v>
@@ -61482,8 +61494,8 @@
       <c r="B37" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C37" s="13" t="s">
-        <v>420</v>
+      <c r="C37" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>622</v>
@@ -61717,8 +61729,8 @@
       <c r="B50" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="17" t="s">
-        <v>420</v>
+      <c r="C50" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>622</v>
@@ -61802,7 +61814,9 @@
         <v>4203</v>
       </c>
       <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
+      <c r="D54" s="23" t="s">
+        <v>7080</v>
+      </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17" t="s">
@@ -61859,8 +61873,8 @@
       <c r="B58" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C58" s="13" t="s">
-        <v>420</v>
+      <c r="C58" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>622</v>
@@ -62017,8 +62031,8 @@
       <c r="B67" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="13" t="s">
-        <v>420</v>
+      <c r="C67" s="23" t="s">
+        <v>7084</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>622</v>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13020" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="raw0" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9501" uniqueCount="7086">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9501" uniqueCount="7088">
   <si>
     <t>河南省南阳市</t>
   </si>
@@ -21560,6 +21560,14 @@
   </si>
   <si>
     <t>缺省为普通文本，bigtext、image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigtext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rnditem:_songci</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59800,8 +59808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60820,8 +60828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60895,6 +60903,12 @@
       <c r="B3" s="17" t="s">
         <v>4362</v>
       </c>
+      <c r="C3" s="17">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>15</v>
+      </c>
       <c r="G3" s="21" t="s">
         <v>5030</v>
       </c>
@@ -60906,9 +60920,13 @@
       <c r="B4" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
       <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="E4" s="10">
+        <v>60</v>
+      </c>
       <c r="F4"/>
       <c r="G4" s="17" t="s">
         <v>4980</v>
@@ -60925,9 +60943,13 @@
       <c r="B5" s="10" t="s">
         <v>4020</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
       <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="E5" s="10">
+        <v>120</v>
+      </c>
       <c r="F5"/>
       <c r="G5" s="17" t="s">
         <v>4981</v>
@@ -60944,7 +60966,9 @@
       <c r="B6" s="10" t="s">
         <v>4186</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="10">
+        <v>2</v>
+      </c>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6"/>
@@ -60963,7 +60987,9 @@
       <c r="B7" s="10" t="s">
         <v>4188</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="23">
+        <v>3</v>
+      </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
       <c r="F7"/>
@@ -60982,7 +61008,9 @@
       <c r="B8" s="10" t="s">
         <v>4190</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="23">
+        <v>4</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8"/>
@@ -61001,7 +61029,9 @@
       <c r="B9" s="10" t="s">
         <v>4192</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="23">
+        <v>5</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9"/>
@@ -61020,7 +61050,9 @@
       <c r="B10" s="10" t="s">
         <v>4194</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="23">
+        <v>6</v>
+      </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10"/>
@@ -61101,6 +61133,9 @@
       <c r="B14" s="17" t="s">
         <v>4362</v>
       </c>
+      <c r="C14" s="23">
+        <v>-1</v>
+      </c>
       <c r="G14" s="21" t="s">
         <v>5030</v>
       </c>
@@ -61112,7 +61147,9 @@
       <c r="B15" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="23">
+        <v>0</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="G15" s="17" t="s">
@@ -61129,7 +61166,9 @@
       <c r="B16" s="10" t="s">
         <v>4020</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="23">
+        <v>1</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16"/>
@@ -61148,7 +61187,9 @@
       <c r="B17" s="10" t="s">
         <v>4186</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="23">
+        <v>2</v>
+      </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17"/>
@@ -61167,7 +61208,9 @@
       <c r="B18" s="17" t="s">
         <v>4375</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="23">
+        <v>3</v>
+      </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
       <c r="F18"/>
@@ -61186,7 +61229,9 @@
       <c r="B19" s="10" t="s">
         <v>4190</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="23">
+        <v>4</v>
+      </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
       <c r="F19"/>
@@ -61205,7 +61250,9 @@
       <c r="B20" s="10" t="s">
         <v>4192</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="23">
+        <v>5</v>
+      </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20"/>
@@ -61224,7 +61271,9 @@
       <c r="B21" s="10" t="s">
         <v>4194</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="23">
+        <v>6</v>
+      </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21"/>
@@ -61294,9 +61343,13 @@
       <c r="B25" s="17" t="s">
         <v>4362</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="23">
+        <v>-1</v>
+      </c>
       <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="23">
+        <v>15</v>
+      </c>
       <c r="F25" s="17"/>
       <c r="G25" s="21" t="s">
         <v>5030</v>
@@ -61311,9 +61364,13 @@
       <c r="B26" s="17" t="s">
         <v>4363</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="23">
+        <v>0</v>
+      </c>
       <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
+      <c r="E26" s="23">
+        <v>60</v>
+      </c>
       <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
         <v>4983</v>
@@ -61330,11 +61387,13 @@
       <c r="B27" s="17" t="s">
         <v>4203</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="23">
+        <v>1</v>
+      </c>
       <c r="D27" s="17" t="s">
         <v>7080</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17" t="s">
         <v>4984</v>
@@ -61344,7 +61403,9 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" s="17" customFormat="1"/>
+    <row r="28" spans="1:9" s="17" customFormat="1">
+      <c r="C28" s="23"/>
+    </row>
     <row r="29" spans="1:9" s="17" customFormat="1">
       <c r="A29" s="17" t="s">
         <v>4364</v>
@@ -61402,7 +61463,9 @@
       <c r="B31" s="17" t="s">
         <v>4362</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="23">
+        <v>-1</v>
+      </c>
       <c r="D31" s="17"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
@@ -61419,6 +61482,9 @@
       <c r="B32" s="17" t="s">
         <v>4374</v>
       </c>
+      <c r="C32" s="23">
+        <v>0</v>
+      </c>
       <c r="G32" s="17" t="s">
         <v>4985</v>
       </c>
@@ -61433,7 +61499,9 @@
       <c r="B33" s="17" t="s">
         <v>4363</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="23">
+        <v>1</v>
+      </c>
       <c r="D33" s="17"/>
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
@@ -61452,7 +61520,9 @@
       <c r="B34" s="17" t="s">
         <v>4203</v>
       </c>
-      <c r="C34" s="17"/>
+      <c r="C34" s="23">
+        <v>2</v>
+      </c>
       <c r="D34" s="17" t="s">
         <v>7080</v>
       </c>
@@ -61523,7 +61593,9 @@
       <c r="B38" s="17" t="s">
         <v>4362</v>
       </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="23">
+        <v>-1</v>
+      </c>
       <c r="D38" s="17"/>
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
@@ -61540,7 +61612,9 @@
       <c r="B39" s="17" t="s">
         <v>4373</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="23">
+        <v>0</v>
+      </c>
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
@@ -61559,6 +61633,9 @@
       <c r="B40" s="17" t="s">
         <v>4374</v>
       </c>
+      <c r="C40" s="23">
+        <v>1</v>
+      </c>
       <c r="G40" s="21" t="s">
         <v>4985</v>
       </c>
@@ -61573,7 +61650,9 @@
       <c r="B41" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C41" s="11"/>
+      <c r="C41" s="23">
+        <v>2</v>
+      </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41"/>
@@ -61592,7 +61671,9 @@
       <c r="B42" s="11" t="s">
         <v>4186</v>
       </c>
-      <c r="C42" s="11"/>
+      <c r="C42" s="23">
+        <v>3</v>
+      </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42"/>
@@ -61611,7 +61692,9 @@
       <c r="B43" s="11" t="s">
         <v>4199</v>
       </c>
-      <c r="C43" s="11"/>
+      <c r="C43" s="23">
+        <v>4</v>
+      </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43"/>
@@ -61623,27 +61706,21 @@
       </c>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:9" s="17" customFormat="1" ht="27">
-      <c r="A44" s="11" t="s">
-        <v>4200</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>4201</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11" t="s">
-        <v>7080</v>
-      </c>
-      <c r="E44"/>
-      <c r="F44"/>
+    <row r="44" spans="1:9" s="17" customFormat="1">
+      <c r="A44" s="17" t="s">
+        <v>5000</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>4999</v>
+      </c>
+      <c r="C44" s="23">
+        <v>5</v>
+      </c>
       <c r="G44" s="17" t="s">
-        <v>4984</v>
-      </c>
-      <c r="H44" s="21" t="s">
-        <v>5036</v>
-      </c>
-      <c r="I44" s="14" t="s">
-        <v>4294</v>
+        <v>4981</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>7020</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="17" customFormat="1">
@@ -61653,7 +61730,9 @@
       <c r="B45" s="11" t="s">
         <v>4194</v>
       </c>
-      <c r="C45" s="11"/>
+      <c r="C45" s="23">
+        <v>6</v>
+      </c>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45"/>
@@ -61665,37 +61744,50 @@
       </c>
       <c r="I45"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" s="17" customFormat="1" ht="27">
       <c r="A46" s="11" t="s">
-        <v>4202</v>
+        <v>4200</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>4203</v>
-      </c>
-      <c r="C46" s="11"/>
+        <v>4201</v>
+      </c>
+      <c r="C46" s="23">
+        <v>7</v>
+      </c>
       <c r="D46" s="11" t="s">
         <v>7080</v>
       </c>
-      <c r="E46" s="11"/>
+      <c r="E46"/>
+      <c r="F46"/>
       <c r="G46" s="17" t="s">
         <v>4984</v>
       </c>
       <c r="H46" s="21" t="s">
         <v>5036</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="17" customFormat="1">
-      <c r="A47" s="17" t="s">
-        <v>5000</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>4999</v>
-      </c>
+      <c r="I46" s="14" t="s">
+        <v>4294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="11" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>4203</v>
+      </c>
+      <c r="C47" s="23">
+        <v>8</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>7080</v>
+      </c>
+      <c r="E47" s="11"/>
       <c r="G47" s="17" t="s">
-        <v>4981</v>
-      </c>
-      <c r="H47" s="23" t="s">
-        <v>7020</v>
+        <v>4984</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>5036</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="21" customFormat="1"/>
@@ -61758,7 +61850,9 @@
       <c r="B51" s="17" t="s">
         <v>4362</v>
       </c>
-      <c r="C51" s="17"/>
+      <c r="C51" s="23">
+        <v>-1</v>
+      </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
       <c r="F51" s="17"/>
@@ -61775,14 +61869,16 @@
       <c r="B52" s="17" t="s">
         <v>4376</v>
       </c>
-      <c r="C52" s="17"/>
+      <c r="C52" s="23">
+        <v>0</v>
+      </c>
       <c r="D52" s="17"/>
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="17" t="s">
         <v>4988</v>
       </c>
-      <c r="H52" s="21" t="s">
+      <c r="H52" s="23" t="s">
         <v>5003</v>
       </c>
       <c r="I52" s="17"/>
@@ -61794,14 +61890,16 @@
       <c r="B53" s="17" t="s">
         <v>4363</v>
       </c>
-      <c r="C53" s="17"/>
+      <c r="C53" s="23">
+        <v>1</v>
+      </c>
       <c r="D53" s="17"/>
       <c r="E53" s="17"/>
       <c r="F53" s="17"/>
       <c r="G53" s="17" t="s">
         <v>4981</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="23" t="s">
         <v>5005</v>
       </c>
       <c r="I53" s="17"/>
@@ -61813,17 +61911,19 @@
       <c r="B54" s="17" t="s">
         <v>4203</v>
       </c>
-      <c r="C54" s="17"/>
+      <c r="C54" s="23">
+        <v>2</v>
+      </c>
       <c r="D54" s="23" t="s">
-        <v>7080</v>
+        <v>7086</v>
       </c>
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="17" t="s">
         <v>4984</v>
       </c>
-      <c r="H54" s="21" t="s">
-        <v>5036</v>
+      <c r="H54" s="23" t="s">
+        <v>7087</v>
       </c>
       <c r="I54" s="17"/>
     </row>
@@ -61834,6 +61934,9 @@
       <c r="B55" s="17" t="s">
         <v>424</v>
       </c>
+      <c r="C55" s="23">
+        <v>3</v>
+      </c>
       <c r="D55" s="17" t="s">
         <v>7080</v>
       </c>
@@ -61902,7 +62005,9 @@
       <c r="B59" s="17" t="s">
         <v>4362</v>
       </c>
-      <c r="C59" s="17"/>
+      <c r="C59" s="23">
+        <v>-1</v>
+      </c>
       <c r="D59" s="17"/>
       <c r="E59" s="17"/>
       <c r="F59" s="17"/>
@@ -61919,7 +62024,9 @@
       <c r="B60" s="17" t="s">
         <v>4377</v>
       </c>
-      <c r="C60" s="17"/>
+      <c r="C60" s="23">
+        <v>0</v>
+      </c>
       <c r="D60" s="17"/>
       <c r="E60" s="17"/>
       <c r="F60" s="17"/>
@@ -61940,7 +62047,9 @@
       <c r="B61" s="17" t="s">
         <v>4376</v>
       </c>
-      <c r="C61" s="17"/>
+      <c r="C61" s="23">
+        <v>1</v>
+      </c>
       <c r="D61" s="17"/>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
@@ -61959,7 +62068,9 @@
       <c r="B62" s="12" t="s">
         <v>4205</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="23">
+        <v>2</v>
+      </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
       <c r="G62" s="17" t="s">
@@ -61976,7 +62087,9 @@
       <c r="B63" s="17" t="s">
         <v>4946</v>
       </c>
-      <c r="C63" s="12"/>
+      <c r="C63" s="23">
+        <v>3</v>
+      </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="G63" s="17" t="s">
@@ -61993,6 +62106,9 @@
       <c r="B64" s="17" t="s">
         <v>424</v>
       </c>
+      <c r="C64" s="23">
+        <v>4</v>
+      </c>
       <c r="G64" s="17" t="s">
         <v>4981</v>
       </c>
@@ -62060,7 +62176,9 @@
       <c r="B68" s="17" t="s">
         <v>4362</v>
       </c>
-      <c r="C68" s="17"/>
+      <c r="C68" s="23">
+        <v>-1</v>
+      </c>
       <c r="D68" s="17"/>
       <c r="E68" s="17"/>
       <c r="F68" s="17"/>
@@ -62077,6 +62195,9 @@
       <c r="B69" s="23" t="s">
         <v>7077</v>
       </c>
+      <c r="C69" s="23">
+        <v>0</v>
+      </c>
       <c r="G69" s="23" t="s">
         <v>4980</v>
       </c>
@@ -62094,7 +62215,9 @@
       <c r="B70" s="17" t="s">
         <v>4377</v>
       </c>
-      <c r="C70" s="17"/>
+      <c r="C70" s="23">
+        <v>1</v>
+      </c>
       <c r="D70" s="17"/>
       <c r="E70" s="17"/>
       <c r="F70" s="17"/>
@@ -62113,7 +62236,9 @@
       <c r="B71" s="17" t="s">
         <v>4376</v>
       </c>
-      <c r="C71" s="17"/>
+      <c r="C71" s="23">
+        <v>2</v>
+      </c>
       <c r="D71" s="17"/>
       <c r="E71" s="17"/>
       <c r="F71" s="17"/>
@@ -62132,7 +62257,9 @@
       <c r="B72" s="17" t="s">
         <v>4381</v>
       </c>
-      <c r="C72" s="12"/>
+      <c r="C72" s="23">
+        <v>3</v>
+      </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12"/>
       <c r="G72" s="17" t="s">
@@ -62149,7 +62276,9 @@
       <c r="B73" s="17" t="s">
         <v>4949</v>
       </c>
-      <c r="C73" s="12"/>
+      <c r="C73" s="23">
+        <v>4</v>
+      </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="G73" s="17" t="s">
@@ -62166,7 +62295,9 @@
       <c r="B74" s="12" t="s">
         <v>4208</v>
       </c>
-      <c r="C74" s="12"/>
+      <c r="C74" s="23">
+        <v>5</v>
+      </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12"/>
       <c r="G74" s="17" t="s">
@@ -62183,7 +62314,9 @@
       <c r="B75" s="12" t="s">
         <v>4210</v>
       </c>
-      <c r="C75" s="12"/>
+      <c r="C75" s="23">
+        <v>6</v>
+      </c>
       <c r="D75" s="12"/>
       <c r="E75" s="12"/>
       <c r="G75" s="21" t="s">
@@ -62200,7 +62333,9 @@
       <c r="B76" s="12" t="s">
         <v>4212</v>
       </c>
-      <c r="C76" s="12"/>
+      <c r="C76" s="23">
+        <v>7</v>
+      </c>
       <c r="D76" s="12"/>
       <c r="E76" s="12"/>
       <c r="G76" s="21" t="s">

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13020" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="raw0" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9448" uniqueCount="6981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9526" uniqueCount="7003">
   <si>
     <t>河南省南阳市</t>
   </si>
@@ -21252,6 +21252,94 @@
   </si>
   <si>
     <t>img/face/face20.jpg</t>
+  </si>
+  <si>
+    <t>choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>referid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upload</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报修单中的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拥有者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以是face(头像)，idimg(身份证扫描件)，用户信息中的各种证件照，报修单中的图片列表，维修记录中的图片列表，维修评估中的文档列表，维修报告中的文档列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指信息主体的id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若对应列表，即为列表的序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -57780,8 +57868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -59061,8 +59149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -59527,7 +59615,7 @@
         <v>433</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>6950</v>
+        <v>6981</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>4840</v>
@@ -59567,7 +59655,7 @@
         <v>435</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>6950</v>
+        <v>4824</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -60172,10 +60260,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60185,7 +60273,7 @@
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="7" max="7" width="45.5" customWidth="1"/>
     <col min="8" max="8" width="37.5" customWidth="1"/>
-    <col min="9" max="9" width="62" customWidth="1"/>
+    <col min="9" max="9" width="64.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="17" customFormat="1" ht="29.25" customHeight="1">
@@ -61549,8 +61637,8 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="27">
-      <c r="A67" s="13" t="s">
-        <v>4222</v>
+      <c r="A67" s="23" t="s">
+        <v>622</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>4223</v>
@@ -61793,256 +61881,514 @@
         <v>6865</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-    </row>
-    <row r="79" spans="1:9">
+    <row r="78" spans="1:9" s="23" customFormat="1"/>
+    <row r="79" spans="1:9" s="23" customFormat="1" ht="27">
       <c r="A79" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>6991</v>
+      </c>
+      <c r="C79" s="23" t="s">
+        <v>6992</v>
+      </c>
+      <c r="E79" s="23" t="s">
+        <v>6870</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>6883</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>6923</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="23" customFormat="1">
+      <c r="A80" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="B80" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C80" s="23" t="s">
+        <v>6917</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="23" customFormat="1">
+      <c r="A81" s="23" t="s">
+        <v>6915</v>
+      </c>
+      <c r="B81" s="23" t="s">
+        <v>6982</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="23" customFormat="1" ht="40.5">
+      <c r="A82" s="23" t="s">
+        <v>6897</v>
+      </c>
+      <c r="B82" s="23" t="s">
+        <v>6983</v>
+      </c>
+      <c r="I82" s="22" t="s">
+        <v>6997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="23" customFormat="1">
+      <c r="A83" s="23" t="s">
+        <v>6993</v>
+      </c>
+      <c r="B83" s="23" t="s">
+        <v>6987</v>
+      </c>
+      <c r="I83" s="23" t="s">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="23" customFormat="1">
+      <c r="A84" s="23" t="s">
+        <v>6994</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>6988</v>
+      </c>
+      <c r="I84" s="23" t="s">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="23" customFormat="1">
+      <c r="A85" s="23" t="s">
+        <v>6995</v>
+      </c>
+      <c r="B85" s="23" t="s">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="23" customFormat="1">
+      <c r="A86" s="23" t="s">
+        <v>6998</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>6986</v>
+      </c>
+      <c r="I86" s="23" t="s">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="23" customFormat="1">
+      <c r="A87" s="23" t="s">
+        <v>6996</v>
+      </c>
+      <c r="B87" s="23" t="s">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="23" customFormat="1"/>
+    <row r="89" spans="1:9" s="23" customFormat="1" ht="27">
+      <c r="A89" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="B89" s="23" t="s">
+        <v>4826</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>6992</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>6870</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>6883</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>6923</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>6880</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="23" customFormat="1">
+      <c r="A90" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="B90" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C90" s="23" t="s">
+        <v>6917</v>
+      </c>
+      <c r="D90" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="23" customFormat="1">
+      <c r="A91" s="23" t="s">
+        <v>6915</v>
+      </c>
+      <c r="B91" s="23" t="s">
+        <v>6982</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="23" customFormat="1" ht="40.5">
+      <c r="A92" s="23" t="s">
+        <v>6897</v>
+      </c>
+      <c r="B92" s="23" t="s">
+        <v>6983</v>
+      </c>
+      <c r="I92" s="22" t="s">
+        <v>6997</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="23" customFormat="1">
+      <c r="A93" s="23" t="s">
+        <v>6993</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>6987</v>
+      </c>
+      <c r="I93" s="23" t="s">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="23" customFormat="1">
+      <c r="A94" s="23" t="s">
+        <v>6994</v>
+      </c>
+      <c r="B94" s="23" t="s">
+        <v>6988</v>
+      </c>
+      <c r="I94" s="23" t="s">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="23" customFormat="1">
+      <c r="A95" s="23" t="s">
+        <v>6995</v>
+      </c>
+      <c r="B95" s="23" t="s">
+        <v>7001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="23" customFormat="1">
+      <c r="A96" s="23" t="s">
+        <v>6998</v>
+      </c>
+      <c r="B96" s="23" t="s">
+        <v>6986</v>
+      </c>
+      <c r="I96" s="23" t="s">
+        <v>7002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="23" customFormat="1">
+      <c r="A97" s="23" t="s">
+        <v>6996</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>6984</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="23" t="s">
         <v>4881</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B99" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C99" s="23" t="s">
         <v>6887</v>
       </c>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23" t="s">
+      <c r="D99" s="23"/>
+      <c r="E99" s="23" t="s">
         <v>6888</v>
       </c>
-      <c r="F79" s="17"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" s="21" t="s">
-        <v>4881</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>6872</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>4867</v>
-      </c>
-      <c r="D80" s="21"/>
-      <c r="E80" s="23" t="s">
-        <v>6871</v>
-      </c>
-      <c r="F80" s="21"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="17"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="23" t="s">
-        <v>4881</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>6872</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>4855</v>
-      </c>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23" t="s">
-        <v>6873</v>
-      </c>
-      <c r="F81" s="23"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="17"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
-      <c r="H96" s="17"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
       <c r="H99" s="17"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
+      <c r="A100" s="21" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B100" s="23" t="s">
+        <v>6872</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>4867</v>
+      </c>
+      <c r="D100" s="21"/>
+      <c r="E100" s="23" t="s">
+        <v>6871</v>
+      </c>
+      <c r="F100" s="21"/>
+      <c r="G100" s="22"/>
       <c r="H100" s="17"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="23" t="s">
+        <v>4881</v>
+      </c>
+      <c r="B101" s="23" t="s">
+        <v>6872</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>4855</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23" t="s">
+        <v>6873</v>
+      </c>
+      <c r="F101" s="23"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="17"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="17"/>
+      <c r="B106" s="23" t="s">
+        <v>6982</v>
+      </c>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="B107" s="23" t="s">
+        <v>6985</v>
+      </c>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="17"/>
+      <c r="B108" s="23" t="s">
+        <v>6983</v>
+      </c>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="17"/>
+      <c r="B109" s="23" t="s">
+        <v>6986</v>
+      </c>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="17"/>
+      <c r="B110" s="23" t="s">
+        <v>6984</v>
+      </c>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="17"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="23"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="23" t="s">
+        <v>6989</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>6990</v>
+      </c>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="23" t="s">
+        <v>6982</v>
+      </c>
+      <c r="B115" s="23" t="s">
+        <v>6983</v>
+      </c>
+      <c r="C115" s="23" t="s">
+        <v>6987</v>
+      </c>
+      <c r="D115" s="23" t="s">
+        <v>6988</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>6984</v>
+      </c>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="17"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="17"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13020" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13020" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="raw0" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9589" uniqueCount="7029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9634" uniqueCount="7044">
   <si>
     <t>河南省南阳市</t>
   </si>
@@ -21139,10 +21139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>div</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -21242,10 +21238,6 @@
     <t>img/face/face20.jpg</t>
   </si>
   <si>
-    <t>choice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -21342,10 +21334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>多对多引用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>比如处理案件的专家列表、案件使用的用料单、设备调用单等。</t>
   </si>
   <si>
@@ -21441,6 +21429,78 @@
   </si>
   <si>
     <t>("job",x[0]) for x in data("_job").data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一对多(多对多)引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注，文档签字位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>("sex",x[0]) for x in data("_sex").data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>winder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>coord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21927,7 +21987,7 @@
   <dimension ref="A1:U990"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21959,7 +22019,7 @@
         <v>6942</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>7019</v>
+        <v>7016</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>4309</v>
@@ -57968,10 +58028,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="P19" sqref="P19:Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -57983,21 +58043,25 @@
     <col min="7" max="7" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="23" t="s">
         <v>3965</v>
       </c>
       <c r="D1" s="17" t="s">
         <v>4826</v>
       </c>
+      <c r="E1" s="23"/>
       <c r="F1" s="23" t="s">
-        <v>7016</v>
+        <v>7013</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>7018</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>7015</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>3958</v>
       </c>
@@ -58005,7 +58069,7 @@
         <v>3964</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>6957</v>
+        <v>6956</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>4851</v>
@@ -58013,8 +58077,11 @@
       <c r="H2" t="s">
         <v>4858</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2" s="23" t="s">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>3957</v>
       </c>
@@ -58022,7 +58089,7 @@
         <v>576</v>
       </c>
       <c r="D3" t="s">
-        <v>6958</v>
+        <v>6957</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>4852</v>
@@ -58030,8 +58097,11 @@
       <c r="H3" t="s">
         <v>4859</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3" s="23" t="s">
+        <v>7032</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>3957</v>
       </c>
@@ -58039,7 +58109,7 @@
         <v>577</v>
       </c>
       <c r="D4" t="s">
-        <v>6959</v>
+        <v>6958</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>4853</v>
@@ -58048,7 +58118,7 @@
         <v>4860</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>3957</v>
       </c>
@@ -58056,7 +58126,7 @@
         <v>578</v>
       </c>
       <c r="D5" t="s">
-        <v>6960</v>
+        <v>6959</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>4854</v>
@@ -58065,7 +58135,7 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>3957</v>
       </c>
@@ -58073,7 +58143,7 @@
         <v>579</v>
       </c>
       <c r="D6" t="s">
-        <v>6961</v>
+        <v>6960</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>4864</v>
@@ -58082,7 +58152,7 @@
         <v>4862</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>3957</v>
       </c>
@@ -58090,13 +58160,13 @@
         <v>580</v>
       </c>
       <c r="D7" t="s">
-        <v>6962</v>
+        <v>6961</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>4855</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>3957</v>
       </c>
@@ -58104,13 +58174,13 @@
         <v>581</v>
       </c>
       <c r="D8" t="s">
-        <v>6963</v>
+        <v>6962</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>4865</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>3957</v>
       </c>
@@ -58118,13 +58188,13 @@
         <v>582</v>
       </c>
       <c r="D9" t="s">
-        <v>6964</v>
+        <v>6963</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>4856</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>3957</v>
       </c>
@@ -58132,13 +58202,13 @@
         <v>583</v>
       </c>
       <c r="D10" t="s">
-        <v>6965</v>
+        <v>6964</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>4866</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>3957</v>
       </c>
@@ -58146,13 +58216,13 @@
         <v>584</v>
       </c>
       <c r="D11" t="s">
-        <v>6966</v>
+        <v>6965</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>4867</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>3957</v>
       </c>
@@ -58160,13 +58230,13 @@
         <v>585</v>
       </c>
       <c r="D12" t="s">
-        <v>6967</v>
+        <v>6966</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>4868</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
         <v>3957</v>
       </c>
@@ -58174,13 +58244,13 @@
         <v>586</v>
       </c>
       <c r="D13" t="s">
-        <v>6968</v>
+        <v>6967</v>
       </c>
       <c r="F13" t="s">
         <v>4857</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
         <v>3957</v>
       </c>
@@ -58188,10 +58258,10 @@
         <v>587</v>
       </c>
       <c r="D14" t="s">
-        <v>6969</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>3957</v>
       </c>
@@ -58199,10 +58269,10 @@
         <v>588</v>
       </c>
       <c r="D15" t="s">
-        <v>6970</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>6969</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>3957</v>
       </c>
@@ -58210,10 +58280,10 @@
         <v>589</v>
       </c>
       <c r="D16" t="s">
-        <v>6971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" t="s">
         <v>3957</v>
       </c>
@@ -58221,10 +58291,10 @@
         <v>590</v>
       </c>
       <c r="D17" t="s">
-        <v>6972</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>6971</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" t="s">
         <v>3959</v>
       </c>
@@ -58232,10 +58302,10 @@
         <v>3960</v>
       </c>
       <c r="D18" t="s">
-        <v>6973</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>6972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" t="s">
         <v>3959</v>
       </c>
@@ -58243,10 +58313,31 @@
         <v>3961</v>
       </c>
       <c r="D19" t="s">
-        <v>6974</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>6973</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>7034</v>
+      </c>
+      <c r="K19" s="23" t="s">
+        <v>7035</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>7034</v>
+      </c>
+      <c r="O19" s="23" t="s">
+        <v>446</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>7034</v>
+      </c>
+      <c r="Q19" s="23" t="s">
+        <v>7030</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" t="s">
         <v>3959</v>
       </c>
@@ -58254,10 +58345,31 @@
         <v>3962</v>
       </c>
       <c r="D20" t="s">
-        <v>6975</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>6974</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>7041</v>
+      </c>
+      <c r="L20" s="23" t="s">
+        <v>4851</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" s="23" t="s">
+        <v>4858</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="23" t="s">
+        <v>7031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" t="s">
         <v>3959</v>
       </c>
@@ -58265,10 +58377,31 @@
         <v>3963</v>
       </c>
       <c r="D21" t="s">
-        <v>6976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>6975</v>
+      </c>
+      <c r="J21" s="23">
+        <v>2</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>7040</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>4852</v>
+      </c>
+      <c r="N21">
+        <v>2</v>
+      </c>
+      <c r="O21" s="23" t="s">
+        <v>4859</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="23" t="s">
+        <v>7032</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" t="s">
         <v>3966</v>
       </c>
@@ -58276,82 +58409,190 @@
         <v>3967</v>
       </c>
       <c r="D22" t="s">
-        <v>6977</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>6976</v>
+      </c>
+      <c r="J22" s="23">
+        <v>3</v>
+      </c>
+      <c r="K22" s="23" t="s">
+        <v>7040</v>
+      </c>
+      <c r="L22" s="23" t="s">
+        <v>4853</v>
+      </c>
+      <c r="N22" s="23">
+        <v>3</v>
+      </c>
+      <c r="O22" s="23" t="s">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" t="s">
         <v>3966</v>
       </c>
       <c r="B23" t="s">
         <v>3968</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="J23" s="23">
+        <v>4</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>7036</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>4854</v>
+      </c>
+      <c r="N23" s="23">
+        <v>4</v>
+      </c>
+      <c r="O23" s="23" t="s">
+        <v>4861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" t="s">
         <v>3966</v>
       </c>
       <c r="B24" t="s">
         <v>3969</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="J24" s="23">
+        <v>5</v>
+      </c>
+      <c r="K24" s="23" t="s">
+        <v>7036</v>
+      </c>
+      <c r="L24" s="23" t="s">
+        <v>4864</v>
+      </c>
+      <c r="N24" s="23">
+        <v>5</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>4862</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" t="s">
         <v>3966</v>
       </c>
       <c r="B25" t="s">
         <v>3970</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="J25" s="23">
+        <v>6</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>7037</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" t="s">
         <v>3971</v>
       </c>
       <c r="B26" t="s">
         <v>3972</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="J26" s="23">
+        <v>7</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>7037</v>
+      </c>
+      <c r="L26" s="23" t="s">
+        <v>4865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" t="s">
         <v>3971</v>
       </c>
       <c r="B27" t="s">
         <v>3973</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="J27" s="23">
+        <v>8</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>7039</v>
+      </c>
+      <c r="L27" s="23" t="s">
+        <v>4856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" t="s">
         <v>3971</v>
       </c>
       <c r="B28" t="s">
         <v>3974</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="J28" s="23">
+        <v>9</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>7039</v>
+      </c>
+      <c r="L28" s="23" t="s">
+        <v>4866</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" t="s">
         <v>3971</v>
       </c>
       <c r="B29" t="s">
         <v>3975</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="J29" s="23">
+        <v>10</v>
+      </c>
+      <c r="K29" s="23" t="s">
+        <v>7038</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>4867</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" t="s">
         <v>3976</v>
       </c>
       <c r="B30" t="s">
         <v>3977</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="J30" s="23">
+        <v>11</v>
+      </c>
+      <c r="K30" s="23" t="s">
+        <v>7038</v>
+      </c>
+      <c r="L30" s="23" t="s">
+        <v>4868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" t="s">
         <v>3976</v>
       </c>
       <c r="B31" t="s">
         <v>3978</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="J31" s="23">
+        <v>12</v>
+      </c>
+      <c r="K31" s="23" t="s">
+        <v>7042</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" t="s">
         <v>3976</v>
       </c>
@@ -58484,7 +58725,7 @@
         <v>4287</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>7009</v>
+        <v>7006</v>
       </c>
       <c r="F1" s="23" t="s">
         <v>4806</v>
@@ -59251,8 +59492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -59392,7 +59633,7 @@
         <v>6906</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>6950</v>
+        <v>6949</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="23" customFormat="1">
@@ -59523,7 +59764,7 @@
         <v>4288</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>6947</v>
+        <v>7043</v>
       </c>
       <c r="E17" s="17">
         <v>0</v>
@@ -59540,7 +59781,7 @@
         <v>621</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>6948</v>
+        <v>6947</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -59560,7 +59801,7 @@
         <v>432</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>6949</v>
+        <v>6948</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -59589,7 +59830,7 @@
         <v>4827</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>6956</v>
+        <v>6955</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -59600,7 +59841,7 @@
         <v>4307</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>6952</v>
+        <v>6951</v>
       </c>
       <c r="E21">
         <v>80</v>
@@ -59620,7 +59861,7 @@
         <v>4308</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>6951</v>
+        <v>6950</v>
       </c>
       <c r="E22" s="17">
         <v>0</v>
@@ -59640,7 +59881,7 @@
         <v>626</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>6952</v>
+        <v>6951</v>
       </c>
       <c r="G23" s="17" t="s">
         <v>4834</v>
@@ -59660,7 +59901,7 @@
         <v>446</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>6952</v>
+        <v>6951</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -59683,7 +59924,7 @@
         <v>153</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>6953</v>
+        <v>6952</v>
       </c>
       <c r="G25" s="17" t="s">
         <v>4827</v>
@@ -59700,7 +59941,7 @@
         <v>6908</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>6953</v>
+        <v>6952</v>
       </c>
       <c r="G26" s="17" t="s">
         <v>4827</v>
@@ -59717,7 +59958,7 @@
         <v>433</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>6978</v>
+        <v>6927</v>
       </c>
       <c r="G27" s="17" t="s">
         <v>4839</v>
@@ -59737,7 +59978,7 @@
         <v>434</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>6952</v>
+        <v>6951</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -59777,7 +60018,7 @@
         <v>2534</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>6952</v>
+        <v>6923</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -59791,7 +60032,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="23" t="s">
-        <v>6955</v>
+        <v>6954</v>
       </c>
       <c r="B31" t="s">
         <v>447</v>
@@ -59817,7 +60058,7 @@
         <v>423</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>6953</v>
+        <v>6952</v>
       </c>
       <c r="G32" s="25" t="s">
         <v>4827</v>
@@ -59834,7 +60075,7 @@
         <v>439</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>6953</v>
+        <v>6952</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -59854,7 +60095,7 @@
         <v>438</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>6953</v>
+        <v>6952</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -59874,7 +60115,7 @@
         <v>440</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>6953</v>
+        <v>6952</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -59894,7 +60135,7 @@
         <v>154</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>6954</v>
+        <v>6953</v>
       </c>
       <c r="G36" s="17" t="s">
         <v>4828</v>
@@ -60364,8 +60605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="I102" sqref="I102"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -60443,7 +60684,7 @@
         <v>-1</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>6922</v>
+        <v>6950</v>
       </c>
       <c r="E3" s="17">
         <v>15</v>
@@ -61989,17 +62230,17 @@
         <v>622</v>
       </c>
       <c r="B79" s="23" t="s">
-        <v>6987</v>
+        <v>6985</v>
       </c>
       <c r="C79" s="23" t="s">
-        <v>6988</v>
+        <v>6986</v>
       </c>
       <c r="F79" s="23" t="s">
         <v>6880</v>
       </c>
       <c r="G79" s="22"/>
       <c r="I79" s="23" t="s">
-        <v>6998</v>
+        <v>6996</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="23" customFormat="1">
@@ -62036,7 +62277,7 @@
         <v>6912</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>6979</v>
+        <v>6977</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>4870</v>
@@ -62047,375 +62288,371 @@
         <v>6894</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>6980</v>
+        <v>6978</v>
       </c>
       <c r="G82" s="23" t="s">
         <v>4827</v>
       </c>
       <c r="H82" s="23" t="s">
-        <v>7023</v>
+        <v>7020</v>
       </c>
       <c r="I82" s="22" t="s">
-        <v>6992</v>
+        <v>6990</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="23" customFormat="1">
       <c r="A83" s="23" t="s">
+        <v>6997</v>
+      </c>
+      <c r="B83" s="23" t="s">
         <v>6999</v>
       </c>
-      <c r="B83" s="23" t="s">
-        <v>7001</v>
-      </c>
       <c r="G83" s="23" t="s">
-        <v>7022</v>
+        <v>7019</v>
       </c>
       <c r="H83" s="23" t="s">
-        <v>7023</v>
+        <v>7020</v>
       </c>
       <c r="I83" s="23" t="s">
-        <v>6994</v>
+        <v>6992</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="23" customFormat="1">
       <c r="A84" s="23" t="s">
-        <v>6989</v>
+        <v>6987</v>
       </c>
       <c r="B84" s="23" t="s">
-        <v>6984</v>
+        <v>6982</v>
       </c>
       <c r="G84" s="23" t="s">
         <v>4827</v>
       </c>
       <c r="H84" s="23" t="s">
-        <v>7023</v>
+        <v>7020</v>
       </c>
       <c r="I84" s="23" t="s">
-        <v>6995</v>
+        <v>6993</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="23" customFormat="1">
       <c r="A85" s="23" t="s">
-        <v>6990</v>
+        <v>6988</v>
       </c>
       <c r="B85" s="23" t="s">
-        <v>6996</v>
+        <v>6994</v>
       </c>
       <c r="G85" s="23" t="s">
-        <v>7021</v>
+        <v>7018</v>
       </c>
       <c r="H85" s="23" t="s">
-        <v>7023</v>
+        <v>7020</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="23" customFormat="1">
       <c r="A86" s="23" t="s">
-        <v>6993</v>
+        <v>6991</v>
       </c>
       <c r="B86" s="23" t="s">
-        <v>6982</v>
+        <v>6980</v>
       </c>
       <c r="G86" s="23" t="s">
-        <v>7021</v>
+        <v>7018</v>
       </c>
       <c r="H86" s="23" t="s">
-        <v>7023</v>
+        <v>7020</v>
       </c>
       <c r="I86" s="23" t="s">
-        <v>6997</v>
+        <v>6995</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="23" customFormat="1">
       <c r="A87" s="23" t="s">
-        <v>6991</v>
+        <v>6989</v>
       </c>
       <c r="B87" s="23" t="s">
-        <v>6981</v>
+        <v>6979</v>
       </c>
       <c r="G87" s="23" t="s">
         <v>4871</v>
       </c>
       <c r="H87" s="23" t="s">
-        <v>7023</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="23" customFormat="1"/>
-    <row r="89" spans="1:9" s="23" customFormat="1">
-      <c r="A89" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="B89" s="23" t="s">
-        <v>4825</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>7003</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>6880</v>
-      </c>
-      <c r="G89" s="22"/>
-      <c r="I89" s="23" t="s">
-        <v>7005</v>
-      </c>
-    </row>
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="23" customFormat="1">
+      <c r="A88" s="23" t="s">
+        <v>7027</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>7028</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>4827</v>
+      </c>
+      <c r="I88" s="23" t="s">
+        <v>7029</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="23" customFormat="1"/>
     <row r="90" spans="1:9" s="23" customFormat="1">
       <c r="A90" s="23" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="B90" s="23" t="s">
-        <v>153</v>
+        <v>4825</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>6914</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>618</v>
+        <v>7026</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="G90" s="23" t="s">
-        <v>623</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>624</v>
-      </c>
+        <v>6880</v>
+      </c>
+      <c r="G90" s="22"/>
       <c r="I90" s="23" t="s">
-        <v>2535</v>
+        <v>7002</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="23" customFormat="1">
       <c r="A91" s="23" t="s">
-        <v>6912</v>
+        <v>591</v>
       </c>
       <c r="B91" s="23" t="s">
-        <v>6979</v>
+        <v>153</v>
+      </c>
+      <c r="C91" s="23" t="s">
+        <v>6914</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>619</v>
       </c>
       <c r="G91" s="23" t="s">
-        <v>4870</v>
+        <v>623</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="I91" s="23" t="s">
+        <v>2535</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="23" customFormat="1">
       <c r="A92" s="23" t="s">
-        <v>6894</v>
+        <v>6912</v>
       </c>
       <c r="B92" s="23" t="s">
-        <v>6980</v>
+        <v>6977</v>
       </c>
       <c r="G92" s="23" t="s">
-        <v>4827</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>7023</v>
-      </c>
-      <c r="I92" s="22" t="s">
-        <v>7004</v>
+        <v>4870</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="23" customFormat="1">
       <c r="A93" s="23" t="s">
-        <v>6999</v>
+        <v>6894</v>
       </c>
       <c r="B93" s="23" t="s">
+        <v>6978</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>4827</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>7020</v>
+      </c>
+      <c r="I93" s="22" t="s">
         <v>7001</v>
-      </c>
-      <c r="G93" s="23" t="s">
-        <v>7021</v>
-      </c>
-      <c r="H93" s="23" t="s">
-        <v>7023</v>
-      </c>
-      <c r="I93" s="23" t="s">
-        <v>6994</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="23" customFormat="1">
       <c r="A94" s="23" t="s">
-        <v>6989</v>
+        <v>6997</v>
       </c>
       <c r="B94" s="23" t="s">
-        <v>6984</v>
+        <v>6999</v>
       </c>
       <c r="G94" s="23" t="s">
-        <v>4827</v>
+        <v>7018</v>
       </c>
       <c r="H94" s="23" t="s">
-        <v>7023</v>
+        <v>7020</v>
       </c>
       <c r="I94" s="23" t="s">
-        <v>6995</v>
+        <v>6992</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="23" customFormat="1">
       <c r="A95" s="23" t="s">
-        <v>7000</v>
+        <v>6987</v>
       </c>
       <c r="B95" s="23" t="s">
-        <v>7002</v>
+        <v>6982</v>
       </c>
       <c r="G95" s="23" t="s">
-        <v>7021</v>
+        <v>4827</v>
       </c>
       <c r="H95" s="23" t="s">
-        <v>7023</v>
+        <v>7020</v>
+      </c>
+      <c r="I95" s="23" t="s">
+        <v>6993</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="23" customFormat="1">
       <c r="A96" s="23" t="s">
-        <v>6991</v>
+        <v>6998</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>6981</v>
+        <v>7000</v>
       </c>
       <c r="G96" s="23" t="s">
+        <v>7018</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="23" customFormat="1">
+      <c r="A97" s="23" t="s">
+        <v>6989</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>6979</v>
+      </c>
+      <c r="G97" s="23" t="s">
         <v>4871</v>
       </c>
-      <c r="H96" s="23" t="s">
-        <v>7023</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" s="23" customFormat="1"/>
-    <row r="98" spans="1:9" s="23" customFormat="1">
-      <c r="A98" s="23" t="s">
-        <v>622</v>
-      </c>
-      <c r="B98" s="23" t="s">
-        <v>7007</v>
-      </c>
-      <c r="C98" s="23" t="s">
-        <v>7006</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>7010</v>
-      </c>
-      <c r="G98" s="22"/>
-      <c r="I98" s="23" t="s">
-        <v>7008</v>
-      </c>
-    </row>
+      <c r="H97" s="23" t="s">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="23" customFormat="1"/>
     <row r="99" spans="1:9" s="23" customFormat="1">
       <c r="A99" s="23" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="B99" s="23" t="s">
-        <v>153</v>
+        <v>7004</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>6914</v>
-      </c>
-      <c r="D99" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>618</v>
+        <v>7003</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="G99" s="23" t="s">
-        <v>623</v>
-      </c>
-      <c r="H99" s="23" t="s">
-        <v>624</v>
-      </c>
+        <v>7007</v>
+      </c>
+      <c r="G99" s="22"/>
       <c r="I99" s="23" t="s">
-        <v>2535</v>
+        <v>7005</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="23" customFormat="1">
       <c r="A100" s="23" t="s">
-        <v>6912</v>
+        <v>591</v>
       </c>
       <c r="B100" s="23" t="s">
-        <v>437</v>
+        <v>153</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>6914</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>619</v>
       </c>
       <c r="G100" s="23" t="s">
-        <v>4870</v>
+        <v>623</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="I100" s="23" t="s">
+        <v>2535</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="23" customFormat="1">
       <c r="A101" s="23" t="s">
-        <v>6894</v>
+        <v>6912</v>
       </c>
       <c r="B101" s="23" t="s">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="G101" s="23" t="s">
-        <v>4827</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>7011</v>
-      </c>
-      <c r="I101" s="22"/>
+        <v>4870</v>
+      </c>
     </row>
     <row r="102" spans="1:9" s="23" customFormat="1">
       <c r="A102" s="23" t="s">
-        <v>4292</v>
+        <v>6894</v>
       </c>
       <c r="B102" s="23" t="s">
-        <v>153</v>
+        <v>420</v>
       </c>
       <c r="G102" s="23" t="s">
         <v>4827</v>
       </c>
       <c r="H102" s="23" t="s">
-        <v>7012</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="23" customFormat="1"/>
-    <row r="104" spans="1:9">
-      <c r="A104" s="23" t="s">
+        <v>7008</v>
+      </c>
+      <c r="I102" s="22"/>
+    </row>
+    <row r="103" spans="1:9" s="23" customFormat="1">
+      <c r="A103" s="23" t="s">
+        <v>4292</v>
+      </c>
+      <c r="B103" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>4827</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="23" customFormat="1"/>
+    <row r="105" spans="1:9">
+      <c r="A105" s="23" t="s">
         <v>4878</v>
       </c>
-      <c r="B104" s="23" t="s">
+      <c r="B105" s="23" t="s">
         <v>594</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C105" s="23" t="s">
         <v>6884</v>
       </c>
-      <c r="D104" s="23"/>
-      <c r="E104" s="23" t="s">
+      <c r="D105" s="23"/>
+      <c r="E105" s="23" t="s">
         <v>6885</v>
       </c>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="A105" s="21" t="s">
-        <v>4878</v>
-      </c>
-      <c r="B105" s="23" t="s">
-        <v>6869</v>
-      </c>
-      <c r="C105" s="23" t="s">
-        <v>4864</v>
-      </c>
-      <c r="D105" s="21"/>
-      <c r="E105" s="23" t="s">
-        <v>6868</v>
-      </c>
-      <c r="F105" s="21"/>
-      <c r="G105" s="22"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
       <c r="H105" s="17"/>
     </row>
     <row r="106" spans="1:9">
-      <c r="A106" s="23" t="s">
+      <c r="A106" s="21" t="s">
         <v>4878</v>
       </c>
       <c r="B106" s="23" t="s">
         <v>6869</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>4854</v>
-      </c>
-      <c r="D106" s="23"/>
+        <v>4864</v>
+      </c>
+      <c r="D106" s="21"/>
       <c r="E106" s="23" t="s">
-        <v>6870</v>
-      </c>
-      <c r="F106" s="23"/>
+        <v>6868</v>
+      </c>
+      <c r="F106" s="21"/>
       <c r="G106" s="22"/>
       <c r="H106" s="17"/>
     </row>
@@ -62424,50 +62661,50 @@
         <v>4878</v>
       </c>
       <c r="B107" s="23" t="s">
-        <v>7007</v>
+        <v>6869</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>7013</v>
+        <v>4854</v>
       </c>
       <c r="D107" s="23"/>
       <c r="E107" s="23" t="s">
-        <v>7024</v>
+        <v>6870</v>
       </c>
       <c r="F107" s="23"/>
       <c r="G107" s="22"/>
-      <c r="H107" s="23"/>
+      <c r="H107" s="17"/>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="23" t="s">
         <v>4878</v>
       </c>
       <c r="B108" s="23" t="s">
-        <v>7007</v>
+        <v>7004</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>7014</v>
+        <v>7010</v>
       </c>
       <c r="D108" s="23"/>
       <c r="E108" s="23" t="s">
-        <v>7025</v>
-      </c>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
+        <v>7021</v>
+      </c>
+      <c r="F108" s="23"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="23"/>
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="23" t="s">
         <v>4878</v>
       </c>
       <c r="B109" s="23" t="s">
-        <v>7007</v>
+        <v>7004</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>7013</v>
+        <v>7011</v>
       </c>
       <c r="D109" s="23"/>
       <c r="E109" s="23" t="s">
-        <v>7024</v>
+        <v>7022</v>
       </c>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
@@ -62478,14 +62715,14 @@
         <v>4878</v>
       </c>
       <c r="B110" s="23" t="s">
-        <v>7007</v>
+        <v>7004</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>7015</v>
+        <v>7012</v>
       </c>
       <c r="D110" s="23"/>
       <c r="E110" s="23" t="s">
-        <v>7028</v>
+        <v>7025</v>
       </c>
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
@@ -62496,13 +62733,13 @@
         <v>4878</v>
       </c>
       <c r="B111" s="23" t="s">
-        <v>7007</v>
+        <v>7004</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>7017</v>
+        <v>7014</v>
       </c>
       <c r="E111" s="23" t="s">
-        <v>7026</v>
+        <v>7023</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -62510,25 +62747,33 @@
         <v>4878</v>
       </c>
       <c r="B112" s="23" t="s">
-        <v>7007</v>
+        <v>7004</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>7020</v>
+        <v>7017</v>
       </c>
       <c r="D112" s="23"/>
       <c r="E112" s="23" t="s">
-        <v>7027</v>
+        <v>7024</v>
       </c>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="17"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
+      <c r="A113" s="23" t="s">
+        <v>4878</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>7004</v>
+      </c>
+      <c r="C113" s="23" t="s">
+        <v>7017</v>
+      </c>
+      <c r="D113" s="23"/>
+      <c r="E113" s="23" t="s">
+        <v>7033</v>
+      </c>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>
@@ -62585,10 +62830,10 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="23" t="s">
-        <v>6985</v>
+        <v>6983</v>
       </c>
       <c r="B119" s="23" t="s">
-        <v>6986</v>
+        <v>6984</v>
       </c>
       <c r="C119" s="17"/>
       <c r="D119" s="17"/>
@@ -62599,19 +62844,19 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="23" t="s">
+        <v>6977</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>6978</v>
+      </c>
+      <c r="C120" s="23" t="s">
+        <v>6981</v>
+      </c>
+      <c r="D120" s="23" t="s">
+        <v>6982</v>
+      </c>
+      <c r="F120" s="23" t="s">
         <v>6979</v>
-      </c>
-      <c r="B120" s="23" t="s">
-        <v>6980</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>6983</v>
-      </c>
-      <c r="D120" s="23" t="s">
-        <v>6984</v>
-      </c>
-      <c r="F120" s="23" t="s">
-        <v>6981</v>
       </c>
       <c r="G120" s="17"/>
       <c r="H120" s="17"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13020" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="26955" windowHeight="13020" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="raw0" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9634" uniqueCount="7044">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9630" uniqueCount="7043">
   <si>
     <t>河南省南阳市</t>
   </si>
@@ -21457,10 +21457,6 @@
   </si>
   <si>
     <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>("sex",x[0]) for x in data("_sex").data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -58031,7 +58027,7 @@
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19:Q21"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -58316,22 +58312,22 @@
         <v>6973</v>
       </c>
       <c r="J19" s="23" t="s">
+        <v>7033</v>
+      </c>
+      <c r="K19" s="23" t="s">
         <v>7034</v>
-      </c>
-      <c r="K19" s="23" t="s">
-        <v>7035</v>
       </c>
       <c r="L19" s="23" t="s">
         <v>626</v>
       </c>
       <c r="N19" s="23" t="s">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="O19" s="23" t="s">
         <v>446</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>7034</v>
+        <v>7033</v>
       </c>
       <c r="Q19" s="23" t="s">
         <v>7030</v>
@@ -58351,7 +58347,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="23" t="s">
-        <v>7041</v>
+        <v>7040</v>
       </c>
       <c r="L20" s="23" t="s">
         <v>4851</v>
@@ -58383,7 +58379,7 @@
         <v>2</v>
       </c>
       <c r="K21" s="23" t="s">
-        <v>7040</v>
+        <v>7039</v>
       </c>
       <c r="L21" s="23" t="s">
         <v>4852</v>
@@ -58415,7 +58411,7 @@
         <v>3</v>
       </c>
       <c r="K22" s="23" t="s">
-        <v>7040</v>
+        <v>7039</v>
       </c>
       <c r="L22" s="23" t="s">
         <v>4853</v>
@@ -58438,7 +58434,7 @@
         <v>4</v>
       </c>
       <c r="K23" s="23" t="s">
-        <v>7036</v>
+        <v>7035</v>
       </c>
       <c r="L23" s="23" t="s">
         <v>4854</v>
@@ -58461,7 +58457,7 @@
         <v>5</v>
       </c>
       <c r="K24" s="23" t="s">
-        <v>7036</v>
+        <v>7035</v>
       </c>
       <c r="L24" s="23" t="s">
         <v>4864</v>
@@ -58484,7 +58480,7 @@
         <v>6</v>
       </c>
       <c r="K25" s="23" t="s">
-        <v>7037</v>
+        <v>7036</v>
       </c>
       <c r="L25" s="23" t="s">
         <v>4855</v>
@@ -58501,7 +58497,7 @@
         <v>7</v>
       </c>
       <c r="K26" s="23" t="s">
-        <v>7037</v>
+        <v>7036</v>
       </c>
       <c r="L26" s="23" t="s">
         <v>4865</v>
@@ -58518,7 +58514,7 @@
         <v>8</v>
       </c>
       <c r="K27" s="23" t="s">
-        <v>7039</v>
+        <v>7038</v>
       </c>
       <c r="L27" s="23" t="s">
         <v>4856</v>
@@ -58535,7 +58531,7 @@
         <v>9</v>
       </c>
       <c r="K28" s="23" t="s">
-        <v>7039</v>
+        <v>7038</v>
       </c>
       <c r="L28" s="23" t="s">
         <v>4866</v>
@@ -58552,7 +58548,7 @@
         <v>10</v>
       </c>
       <c r="K29" s="23" t="s">
-        <v>7038</v>
+        <v>7037</v>
       </c>
       <c r="L29" s="23" t="s">
         <v>4867</v>
@@ -58569,7 +58565,7 @@
         <v>11</v>
       </c>
       <c r="K30" s="23" t="s">
-        <v>7038</v>
+        <v>7037</v>
       </c>
       <c r="L30" s="23" t="s">
         <v>4868</v>
@@ -58586,7 +58582,7 @@
         <v>12</v>
       </c>
       <c r="K31" s="23" t="s">
-        <v>7042</v>
+        <v>7041</v>
       </c>
       <c r="L31" s="23" t="s">
         <v>4857</v>
@@ -59492,7 +59488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -59764,7 +59760,7 @@
         <v>4288</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>7043</v>
+        <v>7042</v>
       </c>
       <c r="E17" s="17">
         <v>0</v>
@@ -60605,8 +60601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I125"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -62761,19 +62757,11 @@
       <c r="H112" s="17"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="23" t="s">
-        <v>4878</v>
-      </c>
-      <c r="B113" s="23" t="s">
-        <v>7004</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>7017</v>
-      </c>
+      <c r="A113" s="23"/>
+      <c r="B113" s="23"/>
+      <c r="C113" s="23"/>
       <c r="D113" s="23"/>
-      <c r="E113" s="23" t="s">
-        <v>7033</v>
-      </c>
+      <c r="E113" s="23"/>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
       <c r="H113" s="17"/>

--- a/db/db.xlsx
+++ b/db/db.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9624" uniqueCount="7051">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9624" uniqueCount="7052">
   <si>
     <t>河南省南阳市</t>
   </si>
@@ -21525,6 +21525,10 @@
   </si>
   <si>
     <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>div</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -59564,7 +59568,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -59915,7 +59919,7 @@
         <v>4306</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>6942</v>
+        <v>7051</v>
       </c>
       <c r="E21">
         <v>80</v>
